--- a/Doc/DataBase.xlsx
+++ b/Doc/DataBase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>idsvnrdb</t>
   </si>
@@ -60,9 +60,6 @@
     <t>linkedtoid</t>
   </si>
   <si>
-    <t>rating</t>
-  </si>
-  <si>
     <t>Temps</t>
   </si>
   <si>
@@ -99,15 +96,9 @@
     <t>relier des souvenirs entre eux, ou a un sub-souvenir</t>
   </si>
   <si>
-    <t>a supprimer</t>
-  </si>
-  <si>
     <t>a ajouter</t>
   </si>
   <si>
-    <t>Evenement, personne, film, livre, objet…</t>
-  </si>
-  <si>
     <t>date de création, pas d'input user our ça</t>
   </si>
   <si>
@@ -117,10 +108,64 @@
     <t>lieu du souvenir, avec autofill par Maps API si possible</t>
   </si>
   <si>
-    <t>nbre de consultations ou like ?</t>
-  </si>
-  <si>
     <t>nbre de fois que l'utilisateur est revenu sur ce souvenir ? Nobre de fois qu'il a aimé y repenser ?</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Evenement (1), personne (2), film (3), livre (4), objet (5)…</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>Stats</t>
+  </si>
+  <si>
+    <t>autoincrémenté (SERIAL)</t>
+  </si>
+  <si>
+    <t>userid</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>prenom</t>
+  </si>
+  <si>
+    <t>nom</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>pwd</t>
+  </si>
+  <si>
+    <t>custom</t>
+  </si>
+  <si>
+    <t>userfriends</t>
+  </si>
+  <si>
+    <t>userphotoid</t>
+  </si>
+  <si>
+    <t>datebirth</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>lastconnexion</t>
   </si>
 </sst>
 </file>
@@ -189,22 +234,10 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -216,14 +249,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,146 +571,237 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q4"/>
+  <dimension ref="A2:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="11.42578125" style="3"/>
-    <col min="6" max="6" width="13.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="3"/>
-    <col min="8" max="8" width="14.85546875" style="3" customWidth="1"/>
-    <col min="9" max="10" width="11.42578125" style="3"/>
-    <col min="11" max="11" width="14.140625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="3" customWidth="1"/>
-    <col min="15" max="16" width="11.42578125" style="3"/>
-    <col min="17" max="17" width="32.7109375" style="3" customWidth="1"/>
-    <col min="18" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
+    <col min="3" max="5" width="11.42578125" style="2"/>
+    <col min="6" max="6" width="13.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="2"/>
+    <col min="8" max="8" width="14.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="2"/>
+    <col min="11" max="11" width="14.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="2"/>
+    <col min="16" max="16" width="32.7109375" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="E2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="H2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="M2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="E2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="H2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="4" spans="1:16" ht="189" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="I4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="189" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>34</v>
+      <c r="M12" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
